--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>0.8110286419699999</v>
+        <v>2.491425799976</v>
       </c>
       <c r="R2">
-        <v>7.299257777729999</v>
+        <v>22.422832199784</v>
       </c>
       <c r="S2">
-        <v>0.0005227912285253598</v>
+        <v>0.001357962732479566</v>
       </c>
       <c r="T2">
-        <v>0.0005227912285253598</v>
+        <v>0.001357962732479566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>17.74770883518111</v>
+        <v>25.83119287133</v>
       </c>
       <c r="R3">
-        <v>159.72937951663</v>
+        <v>232.48073584197</v>
       </c>
       <c r="S3">
-        <v>0.01144022051171643</v>
+        <v>0.01407940676182124</v>
       </c>
       <c r="T3">
-        <v>0.01144022051171643</v>
+        <v>0.01407940676182124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>11.50568116747422</v>
+        <v>20.952606598739</v>
       </c>
       <c r="R4">
-        <v>103.551130507268</v>
+        <v>188.573459388651</v>
       </c>
       <c r="S4">
-        <v>0.007416592807319673</v>
+        <v>0.01142031157807995</v>
       </c>
       <c r="T4">
-        <v>0.007416592807319673</v>
+        <v>0.01142031157807994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.1229948682545556</v>
+        <v>0.3980609483</v>
       </c>
       <c r="R5">
-        <v>1.106953814291</v>
+        <v>3.5825485347</v>
       </c>
       <c r="S5">
-        <v>7.928282054370696E-05</v>
+        <v>0.000216964893376348</v>
       </c>
       <c r="T5">
-        <v>7.928282054370696E-05</v>
+        <v>0.000216964893376348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>30.44426956616</v>
+        <v>64.25621757828978</v>
       </c>
       <c r="R6">
-        <v>273.99842609544</v>
+        <v>578.3059582046079</v>
       </c>
       <c r="S6">
-        <v>0.01962445746600247</v>
+        <v>0.03502313767572627</v>
       </c>
       <c r="T6">
-        <v>0.01962445746600247</v>
+        <v>0.03502313767572627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
-        <v>666.210789606071</v>
+        <v>666.2107896060711</v>
       </c>
       <c r="R7">
-        <v>5995.897106454639</v>
+        <v>5995.89710645464</v>
       </c>
       <c r="S7">
-        <v>0.4294412541448705</v>
+        <v>0.3631211590847075</v>
       </c>
       <c r="T7">
-        <v>0.4294412541448706</v>
+        <v>0.3631211590847075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>431.8985062648782</v>
+        <v>540.3874554296791</v>
       </c>
       <c r="R8">
-        <v>3887.086556383903</v>
+        <v>4863.487098867112</v>
       </c>
       <c r="S8">
-        <v>0.2784029305549922</v>
+        <v>0.2945405902034232</v>
       </c>
       <c r="T8">
-        <v>0.2784029305549922</v>
+        <v>0.2945405902034232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>4.616962620827556</v>
+        <v>10.26636671404445</v>
       </c>
       <c r="R9">
-        <v>41.552663587448</v>
+        <v>92.39730042640001</v>
       </c>
       <c r="S9">
-        <v>0.002976106435322892</v>
+        <v>0.005595728917865167</v>
       </c>
       <c r="T9">
-        <v>0.002976106435322892</v>
+        <v>0.005595728917865167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N10">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q10">
-        <v>8.466925285099999</v>
+        <v>23.05237041979822</v>
       </c>
       <c r="R10">
-        <v>76.20232756589999</v>
+        <v>207.471333778184</v>
       </c>
       <c r="S10">
-        <v>0.005457802650320697</v>
+        <v>0.01256479720395521</v>
       </c>
       <c r="T10">
-        <v>0.005457802650320697</v>
+        <v>0.01256479720395521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
         <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P11">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q11">
-        <v>185.2814030392111</v>
+        <v>239.0078108932189</v>
       </c>
       <c r="R11">
-        <v>1667.5326273529</v>
+        <v>2151.07029803897</v>
       </c>
       <c r="S11">
-        <v>0.1194328872066574</v>
+        <v>0.1302722721935534</v>
       </c>
       <c r="T11">
-        <v>0.1194328872066574</v>
+        <v>0.1302722721935534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N12">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O12">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P12">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q12">
-        <v>120.1162792013822</v>
+        <v>193.8678039615279</v>
       </c>
       <c r="R12">
-        <v>1081.04651281244</v>
+        <v>1744.810235653751</v>
       </c>
       <c r="S12">
-        <v>0.07742727435254815</v>
+        <v>0.1056685103003852</v>
       </c>
       <c r="T12">
-        <v>0.07742727435254816</v>
+        <v>0.1056685103003852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N13">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q13">
-        <v>1.284034010725556</v>
+        <v>3.683131333855556</v>
       </c>
       <c r="R13">
-        <v>11.55630609653</v>
+        <v>33.1481820047</v>
       </c>
       <c r="S13">
-        <v>0.0008276917524207352</v>
+        <v>0.002007507143199601</v>
       </c>
       <c r="T13">
-        <v>0.0008276917524207352</v>
+        <v>0.002007507143199601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N14">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O14">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P14">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q14">
-        <v>1.95686260392</v>
+        <v>2.220609597235555</v>
       </c>
       <c r="R14">
-        <v>17.61176343528</v>
+        <v>19.98548637512</v>
       </c>
       <c r="S14">
-        <v>0.001261398860432001</v>
+        <v>0.001210353154591797</v>
       </c>
       <c r="T14">
-        <v>0.001261398860432001</v>
+        <v>0.001210353154591797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N15">
         <v>247.44181</v>
       </c>
       <c r="O15">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P15">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q15">
-        <v>42.82194971618666</v>
+        <v>23.02336067912222</v>
       </c>
       <c r="R15">
-        <v>385.3975474456799</v>
+        <v>207.2102461121</v>
       </c>
       <c r="S15">
-        <v>0.02760314314621271</v>
+        <v>0.01254898531555087</v>
       </c>
       <c r="T15">
-        <v>0.02760314314621271</v>
+        <v>0.01254898531555088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N16">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O16">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P16">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q16">
-        <v>27.76108764120533</v>
+        <v>18.67507324549222</v>
       </c>
       <c r="R16">
-        <v>249.8497887708479</v>
+        <v>168.07565920943</v>
       </c>
       <c r="S16">
-        <v>0.01789487123154248</v>
+        <v>0.01017893187665832</v>
       </c>
       <c r="T16">
-        <v>0.01789487123154248</v>
+        <v>0.01017893187665832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N17">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O17">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P17">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q17">
-        <v>0.2967639435973333</v>
+        <v>0.3547920078888889</v>
       </c>
       <c r="R17">
-        <v>2.670875492376</v>
+        <v>3.193128071</v>
       </c>
       <c r="S17">
-        <v>0.0001912948305727276</v>
+        <v>0.0001933809646264996</v>
       </c>
       <c r="T17">
-        <v>0.0001912948305727276</v>
+        <v>0.0001933809646264996</v>
       </c>
     </row>
   </sheetData>
